--- a/Lab3/Docs/MIPS_Signal_Coding_Table_v1.xlsx
+++ b/Lab3/Docs/MIPS_Signal_Coding_Table_v1.xlsx
@@ -243,7 +243,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-写目的寄存器是否是rt字段对应的寄存器，若为0则为rd字段对应的寄存器</t>
+表示是否会写入到31号寄存器中，专用于JAL等需要写入31号寄存器的转移指令</t>
         </r>
       </text>
     </comment>
@@ -265,7 +265,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-register file write enable</t>
+写目的寄存器是否是rt字段对应的寄存器，若为0则为rd字段对应的寄存器</t>
         </r>
       </text>
     </comment>
@@ -287,7 +287,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-data memory to register file, 说明这是一条load指令，从datamem读取数据写入寄存器堆中</t>
+register file write enable</t>
         </r>
       </text>
     </comment>
@@ -309,11 +309,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+data memory to register file, 说明这是一条load指令，从datamem读取数据写入寄存器堆中</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>beyondHDL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 hi lo write enable.Hi Lo寄存器的写使能信号，用于乘除法指令。</t>
         </r>
       </text>
     </comment>
-    <comment ref="V4" authorId="0">
+    <comment ref="W4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W4" authorId="0">
+    <comment ref="X4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X4" authorId="0">
+    <comment ref="Y4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0">
+    <comment ref="Z4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -401,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z4" authorId="0">
+    <comment ref="AA4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA4" authorId="0">
+    <comment ref="AB4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -532,7 +554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="267">
   <si>
     <t>操作数1</t>
   </si>
@@ -609,6 +631,9 @@
     <t>地址表达式</t>
   </si>
   <si>
+    <t>r31_sel</t>
+  </si>
+  <si>
     <t>rtsel</t>
   </si>
   <si>
@@ -952,6 +977,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>R[rd] = R[rt] &lt;&lt; R[rs]</t>
     </r>
     <r>
@@ -972,6 +1003,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>R[rd] = R[rt] &gt;&gt; R[rs]</t>
     </r>
     <r>
@@ -992,6 +1029,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>R[rd] = R[rt] &gt;&gt;&gt; R[rs]</t>
     </r>
     <r>
@@ -1114,6 +1157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>R[rt] = SignExt(M[Address]</t>
     </r>
     <r>
@@ -1152,6 +1201,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>R[rt] = ZeroExt(M[Address]</t>
     </r>
     <r>
@@ -1178,6 +1233,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>R[rt] = SignExt(M[Address]</t>
     </r>
     <r>
@@ -1204,6 +1265,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>R[rt] = ZeroExt(M[Address]</t>
     </r>
     <r>
@@ -1251,6 +1318,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>M[Address]</t>
     </r>
     <r>
@@ -1298,6 +1371,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>M[Address]</t>
     </r>
     <r>
@@ -1676,9 +1755,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1717,20 +1796,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1745,6 +1838,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1754,7 +1855,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1769,7 +1870,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1799,6 +1915,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1810,51 +1934,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1918,7 +1997,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1927,7 +2006,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,13 +2096,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,13 +2180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,139 +2198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2263,11 +2354,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2277,6 +2381,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2300,61 +2434,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2366,149 +2457,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2554,6 +2645,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2581,9 +2678,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2596,13 +2690,19 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2635,9 +2735,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2656,19 +2753,19 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2677,7 +2774,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3002,17 +3099,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D63" sqref="D63"/>
+      <selection pane="topRight" activeCell="Q19" sqref="E14:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="17" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="14" customWidth="1"/>
     <col min="3" max="4" width="15.375" style="14" customWidth="1"/>
     <col min="5" max="5" width="39.125" style="14" customWidth="1"/>
@@ -3026,1857 +3123,1883 @@
     <col min="13" max="13" width="9.25" style="14" customWidth="1"/>
     <col min="14" max="14" width="8.58333333333333" style="14" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="14" customWidth="1"/>
-    <col min="16" max="16" width="10.975" style="14" customWidth="1"/>
-    <col min="17" max="17" width="9.55833333333333" style="14" customWidth="1"/>
-    <col min="18" max="18" width="9.25" style="14" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="14" customWidth="1"/>
-    <col min="20" max="20" width="8.04166666666667" style="14" customWidth="1"/>
-    <col min="21" max="21" width="29.4583333333333" style="14" customWidth="1"/>
-    <col min="22" max="22" width="11.375" style="14" customWidth="1"/>
-    <col min="23" max="23" width="10.625" style="14" customWidth="1"/>
-    <col min="24" max="24" width="7" style="14" customWidth="1"/>
-    <col min="25" max="25" width="5.875" style="14" customWidth="1"/>
-    <col min="26" max="26" width="7" style="14" customWidth="1"/>
-    <col min="27" max="27" width="10.65" style="14" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="14"/>
+    <col min="16" max="17" width="10.975" style="14" customWidth="1"/>
+    <col min="18" max="18" width="9.55833333333333" style="14" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="14" customWidth="1"/>
+    <col min="20" max="20" width="8.125" style="14" customWidth="1"/>
+    <col min="21" max="21" width="8.04166666666667" style="14" customWidth="1"/>
+    <col min="22" max="22" width="29.4583333333333" style="14" customWidth="1"/>
+    <col min="23" max="23" width="11.375" style="14" customWidth="1"/>
+    <col min="24" max="24" width="10.625" style="14" customWidth="1"/>
+    <col min="25" max="25" width="7" style="14" customWidth="1"/>
+    <col min="26" max="26" width="5.875" style="14" customWidth="1"/>
+    <col min="27" max="27" width="7" style="14" customWidth="1"/>
+    <col min="28" max="28" width="10.65" style="14" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" spans="1:27">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:28">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="35" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="17" t="s">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+    <row r="2" spans="1:28">
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="19" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="39" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
       <c r="AA2" s="57"/>
+      <c r="AB2" s="59"/>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="16"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
+    <row r="3" spans="1:28">
+      <c r="A3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:28">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="25" t="s">
+      <c r="W4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="25" t="s">
+      <c r="Y4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="25" t="s">
+      <c r="Z4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="26" t="s">
         <v>34</v>
       </c>
+      <c r="AB4" s="26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" s="14" customFormat="1" spans="1:27">
-      <c r="A5" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="27" t="s">
+    <row r="5" s="14" customFormat="1" spans="1:28">
+      <c r="A5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>42</v>
+      <c r="G5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="28" t="s">
+      <c r="N5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="27" t="s">
+      <c r="O5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>47</v>
       </c>
       <c r="W5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="28">
+        <v>8</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="28">
+        <v>1</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <v>1</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="28">
+        <v>1</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28">
+        <v>1</v>
+      </c>
+      <c r="S6" s="28">
+        <v>1</v>
+      </c>
+      <c r="T6" s="28">
+        <v>0</v>
+      </c>
+      <c r="U6" s="28">
+        <v>0</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" s="14" customFormat="1" spans="1:28">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="28">
+        <v>9</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="28">
+        <v>1</v>
+      </c>
+      <c r="J7" s="28">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <v>1</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28">
+        <v>1</v>
+      </c>
+      <c r="S7" s="28">
+        <v>1</v>
+      </c>
+      <c r="T7" s="28">
+        <v>0</v>
+      </c>
+      <c r="U7" s="28">
+        <v>0</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="27"/>
+      <c r="B8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="28">
+        <v>1</v>
+      </c>
+      <c r="J8" s="28">
+        <v>0</v>
+      </c>
+      <c r="K8" s="28">
+        <v>1</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="30">
+        <v>1</v>
+      </c>
+      <c r="T8" s="30">
+        <v>0</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" s="14" customFormat="1" spans="1:28">
+      <c r="A9" s="27"/>
+      <c r="B9" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="30">
+        <v>0</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="30">
+        <v>1</v>
+      </c>
+      <c r="T9" s="30">
+        <v>0</v>
+      </c>
+      <c r="U9" s="30">
+        <v>0</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB9" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="28">
+        <v>1</v>
+      </c>
+      <c r="T10" s="28">
+        <v>0</v>
+      </c>
+      <c r="U10" s="28">
+        <v>0</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" s="14" customFormat="1" spans="1:28">
+      <c r="A11" s="27"/>
+      <c r="B11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+      <c r="K11" s="30">
+        <v>1</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="30">
+        <v>1</v>
+      </c>
+      <c r="T11" s="30">
+        <v>0</v>
+      </c>
+      <c r="U11" s="30">
+        <v>0</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB11" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" s="14" customFormat="1" spans="1:28">
+      <c r="A12" s="27"/>
+      <c r="B12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB12" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="1" spans="1:28">
+      <c r="A13" s="27"/>
+      <c r="B13" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="30">
+        <v>1</v>
+      </c>
+      <c r="K13" s="30">
+        <v>1</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="30">
+        <v>1</v>
+      </c>
+      <c r="T13" s="28">
+        <v>0</v>
+      </c>
+      <c r="U13" s="30">
+        <v>0</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB13" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" s="14" customFormat="1" spans="1:28">
+      <c r="A14" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="28">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="28">
+        <v>1</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28">
+        <v>0</v>
+      </c>
+      <c r="S14" s="28">
+        <v>1</v>
+      </c>
+      <c r="T14" s="28">
+        <v>0</v>
+      </c>
+      <c r="U14" s="28">
+        <v>0</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB14" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="28">
+        <v>0</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="28">
+        <v>0</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28">
+        <v>0</v>
+      </c>
+      <c r="S15" s="28">
+        <v>1</v>
+      </c>
+      <c r="T15" s="28">
+        <v>0</v>
+      </c>
+      <c r="U15" s="28">
+        <v>0</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB15" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="27"/>
+      <c r="B16" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="30">
+        <v>1</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S16" s="30">
+        <v>1</v>
+      </c>
+      <c r="T16" s="30">
+        <v>0</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z16" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB16" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" s="14" customFormat="1" spans="1:28">
+      <c r="A17" s="27"/>
+      <c r="B17" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="30">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="30">
+        <v>0</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30">
+        <v>0</v>
+      </c>
+      <c r="S17" s="30">
+        <v>1</v>
+      </c>
+      <c r="T17" s="30">
+        <v>0</v>
+      </c>
+      <c r="U17" s="30">
+        <v>0</v>
+      </c>
+      <c r="V17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB17" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" s="14" customFormat="1" spans="1:28">
+      <c r="A18" s="27"/>
+      <c r="B18" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="30">
+        <v>0</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="30">
+        <v>1</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30">
+        <v>0</v>
+      </c>
+      <c r="S18" s="30">
+        <v>1</v>
+      </c>
+      <c r="T18" s="30">
+        <v>0</v>
+      </c>
+      <c r="U18" s="30">
+        <v>0</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W18" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="X18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB18" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="27"/>
+      <c r="B19" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="30">
+        <v>1</v>
+      </c>
+      <c r="T19" s="30">
+        <v>0</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="V19" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W19" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z19" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB19" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" s="14" customFormat="1" spans="1:28">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="28">
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <v>0</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="28">
+        <v>1</v>
+      </c>
+      <c r="T20" s="28">
+        <v>0</v>
+      </c>
+      <c r="U20" s="28">
+        <v>0</v>
+      </c>
+      <c r="V20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z20" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB20" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="27"/>
+      <c r="B21" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="30">
+        <v>0</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" s="30">
+        <v>1</v>
+      </c>
+      <c r="T21" s="30">
+        <v>0</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z21" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB21" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="27"/>
+      <c r="B22" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S22" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB22" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="27"/>
+      <c r="B23" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="30">
+        <v>1</v>
+      </c>
+      <c r="T23" s="30">
+        <v>0</v>
+      </c>
+      <c r="U23" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB23" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" s="14" customFormat="1" spans="1:28">
+      <c r="A24" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="30">
+        <v>1</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="30">
+        <v>0</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA5" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="29"/>
-      <c r="B6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="27">
-        <v>8</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="27">
-        <v>0</v>
-      </c>
-      <c r="K6" s="27">
-        <v>1</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="27">
-        <v>1</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="27">
-        <v>1</v>
-      </c>
-      <c r="R6" s="27">
-        <v>1</v>
-      </c>
-      <c r="S6" s="27">
-        <v>0</v>
-      </c>
-      <c r="T6" s="27">
-        <v>0</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" s="14" customFormat="1" spans="1:27">
-      <c r="A7" s="29"/>
-      <c r="B7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="27">
-        <v>9</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27">
-        <v>1</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="27">
-        <v>0</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>1</v>
-      </c>
-      <c r="R7" s="27">
-        <v>1</v>
-      </c>
-      <c r="S7" s="27">
-        <v>0</v>
-      </c>
-      <c r="T7" s="27">
-        <v>0</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y7" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA7" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
-      <c r="J8" s="27">
-        <v>0</v>
-      </c>
-      <c r="K8" s="27">
-        <v>1</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="30">
-        <v>1</v>
-      </c>
-      <c r="S8" s="30">
-        <v>0</v>
-      </c>
-      <c r="T8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA8" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" s="14" customFormat="1" spans="1:27">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" s="30">
-        <v>0</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="30">
-        <v>1</v>
-      </c>
-      <c r="S9" s="30">
-        <v>0</v>
-      </c>
-      <c r="T9" s="30">
-        <v>0</v>
-      </c>
-      <c r="U9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V9" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="W9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="29"/>
-      <c r="B10" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="27">
-        <v>1</v>
-      </c>
-      <c r="S10" s="27">
-        <v>0</v>
-      </c>
-      <c r="T10" s="27">
-        <v>0</v>
-      </c>
-      <c r="U10" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" s="14" customFormat="1" spans="1:27">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30">
-        <v>1</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="30">
-        <v>1</v>
-      </c>
-      <c r="S11" s="30">
-        <v>0</v>
-      </c>
-      <c r="T11" s="30">
-        <v>0</v>
-      </c>
-      <c r="U11" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V11" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X11" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y11" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA11" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" s="14" customFormat="1" spans="1:27">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y12" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA12" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" s="14" customFormat="1" spans="1:27">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="30">
-        <v>1</v>
-      </c>
-      <c r="K13" s="30">
-        <v>1</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" s="30">
-        <v>1</v>
-      </c>
-      <c r="S13" s="27">
-        <v>0</v>
-      </c>
-      <c r="T13" s="30">
-        <v>0</v>
-      </c>
-      <c r="U13" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y13" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA13" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" s="14" customFormat="1" spans="1:27">
-      <c r="A14" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="27">
-        <v>0</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="27">
-        <v>1</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="27">
-        <v>0</v>
-      </c>
-      <c r="R14" s="27">
-        <v>1</v>
-      </c>
-      <c r="S14" s="27">
-        <v>0</v>
-      </c>
-      <c r="T14" s="27">
-        <v>0</v>
-      </c>
-      <c r="U14" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y14" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA14" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="29"/>
-      <c r="B15" s="27" t="s">
+      <c r="O24" s="30">
+        <v>0</v>
+      </c>
+      <c r="P24" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="27">
-        <v>0</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="27">
-        <v>0</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="27">
-        <v>0</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>0</v>
-      </c>
-      <c r="R15" s="27">
-        <v>1</v>
-      </c>
-      <c r="S15" s="27">
-        <v>0</v>
-      </c>
-      <c r="T15" s="27">
-        <v>0</v>
-      </c>
-      <c r="U15" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y15" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA15" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="30">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="O16" s="30">
-        <v>1</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="30">
-        <v>1</v>
-      </c>
-      <c r="S16" s="30">
-        <v>0</v>
-      </c>
-      <c r="T16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="U16" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W16" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X16" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y16" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA16" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" s="14" customFormat="1" spans="1:27">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="30">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="30">
-        <v>0</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" s="30">
-        <v>0</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>0</v>
-      </c>
-      <c r="R17" s="30">
-        <v>1</v>
-      </c>
-      <c r="S17" s="30">
-        <v>0</v>
-      </c>
-      <c r="T17" s="30">
-        <v>0</v>
-      </c>
-      <c r="U17" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V17" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="W17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y17" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA17" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" s="14" customFormat="1" spans="1:27">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="30">
-        <v>0</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="30">
-        <v>1</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q18" s="30">
-        <v>0</v>
-      </c>
-      <c r="R18" s="30">
-        <v>1</v>
-      </c>
-      <c r="S18" s="30">
-        <v>0</v>
-      </c>
-      <c r="T18" s="30">
-        <v>0</v>
-      </c>
-      <c r="U18" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V18" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="W18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y18" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA18" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="30">
-        <v>0</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19" s="30">
-        <v>1</v>
-      </c>
-      <c r="S19" s="30">
-        <v>0</v>
-      </c>
-      <c r="T19" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="U19" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y19" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA19" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" s="14" customFormat="1" spans="1:27">
-      <c r="A20" s="29"/>
-      <c r="B20" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="27">
-        <v>0</v>
-      </c>
-      <c r="J20" s="27">
-        <v>0</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" s="27">
-        <v>1</v>
-      </c>
-      <c r="S20" s="27">
-        <v>0</v>
-      </c>
-      <c r="T20" s="27">
-        <v>0</v>
-      </c>
-      <c r="U20" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y20" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA20" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="30">
-        <v>0</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="R21" s="30">
-        <v>1</v>
-      </c>
-      <c r="S21" s="30">
-        <v>0</v>
-      </c>
-      <c r="T21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y21" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA21" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="S22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="T22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="U22" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y22" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA22" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="30">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="O23" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q23" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" s="30">
-        <v>1</v>
-      </c>
-      <c r="S23" s="30">
-        <v>0</v>
-      </c>
-      <c r="T23" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="U23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="V23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y23" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA23" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" s="14" customFormat="1" spans="1:27">
-      <c r="A24" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="30">
-        <v>1</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="30">
-        <v>0</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" s="30">
-        <v>0</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q24" s="30">
-        <v>0</v>
-      </c>
+      <c r="Q24" s="30"/>
       <c r="R24" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="30">
         <v>0</v>
       </c>
-      <c r="U24" s="30" t="s">
-        <v>46</v>
+      <c r="U24" s="30">
+        <v>0</v>
       </c>
       <c r="V24" s="30" t="s">
         <v>47</v>
       </c>
       <c r="W24" s="30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X24" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y24" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="Y24" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z24" s="30">
+        <v>0</v>
       </c>
       <c r="AA24" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AB24" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="29"/>
+    <row r="25" spans="1:28">
+      <c r="A25" s="27"/>
       <c r="B25" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>129</v>
+      <c r="D25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="G25" s="30">
         <v>1</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>56</v>
+      <c r="H25" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -4887,13 +5010,13 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="30">
-        <v>1</v>
-      </c>
+      <c r="R25" s="30"/>
       <c r="S25" s="30">
-        <v>0</v>
-      </c>
-      <c r="T25" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="30">
+        <v>0</v>
+      </c>
       <c r="U25" s="30"/>
       <c r="V25" s="30"/>
       <c r="W25" s="30"/>
@@ -4901,23 +5024,24 @@
       <c r="Y25" s="30"/>
       <c r="Z25" s="30"/>
       <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
     </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="29"/>
+    <row r="26" spans="1:28">
+      <c r="A26" s="27"/>
       <c r="B26" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="27" t="s">
-        <v>129</v>
+      <c r="D26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="G26" s="30">
         <v>1</v>
@@ -4933,10 +5057,10 @@
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
-      <c r="S26" s="30">
-        <v>0</v>
-      </c>
-      <c r="T26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30">
+        <v>0</v>
+      </c>
       <c r="U26" s="30"/>
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
@@ -4944,22 +5068,23 @@
       <c r="Y26" s="30"/>
       <c r="Z26" s="30"/>
       <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
     </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="29"/>
+    <row r="27" spans="1:28">
+      <c r="A27" s="27"/>
       <c r="B27" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="D27" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="28"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -4981,22 +5106,23 @@
       <c r="Y27" s="30"/>
       <c r="Z27" s="30"/>
       <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
     </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="29"/>
+    <row r="28" spans="1:28">
+      <c r="A28" s="27"/>
       <c r="B28" s="30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="D28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="28"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -5018,22 +5144,23 @@
       <c r="Y28" s="30"/>
       <c r="Z28" s="30"/>
       <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
     </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:28">
+      <c r="A29" s="27"/>
       <c r="B29" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="27"/>
+      <c r="D29" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="28"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -5055,118 +5182,120 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
       <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
     </row>
-    <row r="30" s="14" customFormat="1" spans="1:27">
-      <c r="A30" s="26" t="s">
-        <v>146</v>
+    <row r="30" s="14" customFormat="1" spans="1:28">
+      <c r="A30" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="27" t="s">
-        <v>51</v>
+      <c r="D30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G30" s="30">
         <v>0</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30" s="30">
         <v>0</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M30" s="30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O30" s="30">
         <v>1</v>
       </c>
       <c r="P30" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q30" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R30" s="30">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="S30" s="30">
         <v>0</v>
       </c>
       <c r="T30" s="30">
-        <v>1</v>
-      </c>
-      <c r="U30" s="30" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="U30" s="30">
+        <v>1</v>
       </c>
       <c r="V30" s="30" t="s">
         <v>47</v>
       </c>
       <c r="W30" s="30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X30" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y30" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="Y30" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z30" s="30">
+        <v>0</v>
       </c>
       <c r="AA30" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AB30" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
-      <c r="A31" s="29"/>
+    <row r="31" spans="1:28">
+      <c r="A31" s="27"/>
       <c r="B31" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>51</v>
+        <v>156</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G31" s="30">
         <v>0</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
       <c r="L31" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
@@ -5174,93 +5303,95 @@
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
       <c r="R31" s="30"/>
-      <c r="S31" s="30">
-        <v>0</v>
-      </c>
+      <c r="S31" s="30"/>
       <c r="T31" s="30">
-        <v>1</v>
-      </c>
-      <c r="U31" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="30">
+        <v>1</v>
+      </c>
       <c r="V31" s="30"/>
       <c r="W31" s="30"/>
       <c r="X31" s="30"/>
       <c r="Y31" s="30"/>
       <c r="Z31" s="30"/>
       <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
     </row>
-    <row r="32" s="14" customFormat="1" spans="1:27">
-      <c r="A32" s="29"/>
+    <row r="32" s="14" customFormat="1" spans="1:28">
+      <c r="A32" s="27"/>
       <c r="B32" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="27" t="s">
-        <v>51</v>
+      <c r="D32" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G32" s="30">
         <v>0</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="30">
-        <v>0</v>
-      </c>
+      <c r="R32" s="30"/>
       <c r="S32" s="30">
         <v>0</v>
       </c>
       <c r="T32" s="30">
-        <v>1</v>
-      </c>
-      <c r="U32" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="30">
+        <v>1</v>
+      </c>
       <c r="V32" s="30"/>
       <c r="W32" s="30"/>
       <c r="X32" s="30"/>
       <c r="Y32" s="30"/>
       <c r="Z32" s="30"/>
       <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
     </row>
-    <row r="33" spans="1:27">
-      <c r="A33" s="29"/>
+    <row r="33" spans="1:28">
+      <c r="A33" s="27"/>
       <c r="B33" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>51</v>
+        <v>163</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G33" s="30">
         <v>0</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -5271,119 +5402,121 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="30">
-        <v>0</v>
-      </c>
+      <c r="R33" s="30"/>
       <c r="S33" s="30">
         <v>0</v>
       </c>
       <c r="T33" s="30">
-        <v>1</v>
-      </c>
-      <c r="U33" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="30">
+        <v>1</v>
+      </c>
       <c r="V33" s="30"/>
       <c r="W33" s="30"/>
       <c r="X33" s="30"/>
       <c r="Y33" s="30"/>
       <c r="Z33" s="30"/>
       <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
     </row>
-    <row r="34" s="14" customFormat="1" spans="1:27">
-      <c r="A34" s="29"/>
+    <row r="34" s="14" customFormat="1" spans="1:28">
+      <c r="A34" s="27"/>
       <c r="B34" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>38</v>
+        <v>165</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>46</v>
+        <v>166</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M34" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O34" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q34" s="30">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Q34" s="30"/>
       <c r="R34" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="30">
         <v>0</v>
       </c>
-      <c r="U34" s="30" t="s">
-        <v>46</v>
+      <c r="U34" s="30">
+        <v>0</v>
       </c>
       <c r="V34" s="30" t="s">
         <v>47</v>
       </c>
       <c r="W34" s="30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X34" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y34" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="Y34" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z34" s="30">
+        <v>0</v>
       </c>
       <c r="AA34" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AB34" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="35" s="14" customFormat="1" spans="1:27">
-      <c r="A35" s="29"/>
+    <row r="35" s="14" customFormat="1" spans="1:28">
+      <c r="A35" s="27"/>
       <c r="B35" s="30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>38</v>
+        <v>171</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="27"/>
+        <v>172</v>
+      </c>
+      <c r="F35" s="28"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -5405,103 +5538,105 @@
       <c r="Y35" s="30"/>
       <c r="Z35" s="30"/>
       <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
     </row>
-    <row r="36" s="14" customFormat="1" spans="1:27">
-      <c r="A36" s="29"/>
+    <row r="36" s="14" customFormat="1" spans="1:28">
+      <c r="A36" s="27"/>
       <c r="B36" s="30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>38</v>
+        <v>174</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>46</v>
+        <v>175</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J36" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L36" s="30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N36" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P36" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q36" s="30">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Q36" s="30"/>
       <c r="R36" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="30">
         <v>0</v>
       </c>
-      <c r="U36" s="30" t="s">
-        <v>46</v>
+      <c r="U36" s="30">
+        <v>0</v>
       </c>
       <c r="V36" s="30" t="s">
         <v>47</v>
       </c>
       <c r="W36" s="30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X36" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y36" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="Y36" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z36" s="30">
+        <v>0</v>
       </c>
       <c r="AA36" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AB36" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="37" s="14" customFormat="1" spans="1:27">
-      <c r="A37" s="29"/>
+    <row r="37" s="14" customFormat="1" spans="1:28">
+      <c r="A37" s="27"/>
       <c r="B37" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>38</v>
+        <v>179</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="27"/>
+        <v>180</v>
+      </c>
+      <c r="F37" s="28"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
@@ -5523,345 +5658,348 @@
       <c r="Y37" s="30"/>
       <c r="Z37" s="30"/>
       <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
     </row>
-    <row r="38" s="14" customFormat="1" spans="1:27">
-      <c r="A38" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" s="27" t="s">
+    <row r="38" s="14" customFormat="1" spans="1:28">
+      <c r="A38" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="27">
+      <c r="B38" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="28">
         <v>20</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="27">
-        <v>0</v>
-      </c>
-      <c r="H38" s="27" t="s">
+      <c r="D38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="27">
-        <v>1</v>
-      </c>
-      <c r="J38" s="27">
-        <v>0</v>
-      </c>
-      <c r="K38" s="27">
-        <v>1</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N38" s="27" t="s">
+      <c r="G38" s="28">
+        <v>0</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="28">
+        <v>1</v>
+      </c>
+      <c r="J38" s="28">
+        <v>0</v>
+      </c>
+      <c r="K38" s="28">
+        <v>1</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M38" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="O38" s="27">
-        <v>0</v>
-      </c>
-      <c r="P38" s="27" t="s">
+      <c r="N38" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="Q38" s="27">
-        <v>1</v>
-      </c>
-      <c r="R38" s="27">
-        <v>1</v>
-      </c>
-      <c r="S38" s="27">
-        <v>1</v>
-      </c>
-      <c r="T38" s="27">
-        <v>0</v>
-      </c>
-      <c r="U38" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="V38" s="27" t="s">
+      <c r="O38" s="28">
+        <v>0</v>
+      </c>
+      <c r="P38" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28">
+        <v>1</v>
+      </c>
+      <c r="S38" s="28">
+        <v>1</v>
+      </c>
+      <c r="T38" s="28">
+        <v>1</v>
+      </c>
+      <c r="U38" s="28">
+        <v>0</v>
+      </c>
+      <c r="V38" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="W38" s="27" t="s">
+      <c r="W38" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="X38" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="27" t="s">
+      <c r="X38" s="28" t="s">
         <v>186</v>
       </c>
+      <c r="Y38" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="28" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="39" spans="1:27">
-      <c r="A39" s="29"/>
-      <c r="B39" s="27" t="s">
+    <row r="39" spans="1:28">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="28">
+        <v>24</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="28">
+        <v>0</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="28">
+        <v>1</v>
+      </c>
+      <c r="J39" s="28">
+        <v>0</v>
+      </c>
+      <c r="K39" s="28">
+        <v>1</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="28">
+        <v>0</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="S39" s="28">
+        <v>1</v>
+      </c>
+      <c r="T39" s="28">
+        <v>1</v>
+      </c>
+      <c r="U39" s="28">
+        <v>0</v>
+      </c>
+      <c r="V39" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="W39" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="X39" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y39" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="27">
-        <v>24</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="27">
-        <v>0</v>
-      </c>
-      <c r="H39" s="27" t="s">
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="28">
+        <v>21</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28">
+        <v>1</v>
+      </c>
+      <c r="T40" s="28">
+        <v>1</v>
+      </c>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="28">
+        <v>25</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="27">
-        <v>1</v>
-      </c>
-      <c r="J39" s="27">
-        <v>0</v>
-      </c>
-      <c r="K39" s="27">
-        <v>1</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N39" s="27" t="s">
+      <c r="G41" s="28">
+        <v>0</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="28">
+        <v>1</v>
+      </c>
+      <c r="J41" s="28">
+        <v>0</v>
+      </c>
+      <c r="K41" s="28">
+        <v>1</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="O39" s="27">
-        <v>0</v>
-      </c>
-      <c r="P39" s="27" t="s">
+      <c r="N41" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="Q39" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="R39" s="27">
-        <v>1</v>
-      </c>
-      <c r="S39" s="27">
-        <v>1</v>
-      </c>
-      <c r="T39" s="27">
-        <v>0</v>
-      </c>
-      <c r="U39" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="V39" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="W39" s="27" t="s">
+      <c r="O41" s="28">
+        <v>0</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41" s="28">
+        <v>1</v>
+      </c>
+      <c r="T41" s="28">
+        <v>1</v>
+      </c>
+      <c r="U41" s="28">
+        <v>0</v>
+      </c>
+      <c r="V41" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="W41" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="X39" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="27" t="s">
-        <v>186</v>
+      <c r="X41" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y41" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="28" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
-      <c r="A40" s="29"/>
-      <c r="B40" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="27">
-        <v>21</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27">
-        <v>1</v>
-      </c>
-      <c r="S40" s="27">
-        <v>1</v>
-      </c>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-    </row>
-    <row r="41" spans="1:27">
-      <c r="A41" s="29"/>
-      <c r="B41" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="27">
-        <v>25</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="27">
-        <v>0</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="27">
-        <v>1</v>
-      </c>
-      <c r="J41" s="27">
-        <v>0</v>
-      </c>
-      <c r="K41" s="27">
-        <v>1</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O41" s="27">
-        <v>0</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="R41" s="27">
-        <v>1</v>
-      </c>
-      <c r="S41" s="27">
-        <v>1</v>
-      </c>
-      <c r="T41" s="27">
-        <v>0</v>
-      </c>
-      <c r="U41" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="V41" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="W41" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="X41" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" s="14" customFormat="1" spans="1:27">
-      <c r="A42" s="29"/>
+    <row r="42" s="14" customFormat="1" spans="1:28">
+      <c r="A42" s="27"/>
       <c r="B42" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C42" s="30">
         <v>23</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>51</v>
+      <c r="D42" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G42" s="30">
         <v>0</v>
       </c>
-      <c r="H42" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="27">
-        <v>1</v>
-      </c>
-      <c r="J42" s="27">
-        <v>0</v>
-      </c>
-      <c r="K42" s="27">
+      <c r="H42" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="28">
+        <v>1</v>
+      </c>
+      <c r="J42" s="28">
+        <v>0</v>
+      </c>
+      <c r="K42" s="28">
         <v>1</v>
       </c>
       <c r="L42" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M42" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="N42" s="27" t="s">
         <v>55</v>
       </c>
+      <c r="N42" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="O42" s="30">
         <v>0</v>
       </c>
-      <c r="P42" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q42" s="30">
-        <v>1</v>
-      </c>
+      <c r="P42" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q42" s="28"/>
       <c r="R42" s="30">
         <v>1</v>
       </c>
@@ -5869,54 +6007,57 @@
         <v>1</v>
       </c>
       <c r="T42" s="30">
-        <v>0</v>
-      </c>
-      <c r="U42" s="30" t="s">
-        <v>197</v>
+        <v>1</v>
+      </c>
+      <c r="U42" s="30">
+        <v>0</v>
       </c>
       <c r="V42" s="30" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="W42" s="30" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="X42" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y42" s="30">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="Y42" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="Z42" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="30">
         <v>1111</v>
       </c>
     </row>
-    <row r="43" s="14" customFormat="1" spans="1:27">
-      <c r="A43" s="26" t="s">
-        <v>199</v>
+    <row r="43" s="14" customFormat="1" spans="1:28">
+      <c r="A43" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C43" s="30">
         <v>28</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>51</v>
+      <c r="D43" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G43" s="30">
         <v>0</v>
       </c>
-      <c r="H43" s="27" t="s">
-        <v>52</v>
+      <c r="H43" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="I43" s="30">
         <v>1</v>
@@ -5928,76 +6069,77 @@
         <v>1</v>
       </c>
       <c r="L43" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M43" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="N43" s="27" t="s">
         <v>55</v>
       </c>
+      <c r="N43" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="O43" s="30">
         <v>0</v>
       </c>
       <c r="P43" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q43" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="30">
-        <v>0</v>
-      </c>
-      <c r="S43" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T43" s="30">
-        <v>0</v>
-      </c>
-      <c r="U43" s="30" t="s">
-        <v>183</v>
+        <v>47</v>
+      </c>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43" s="30">
+        <v>0</v>
+      </c>
+      <c r="T43" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U43" s="30">
+        <v>0</v>
       </c>
       <c r="V43" s="30" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="W43" s="30" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="X43" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y43" s="30">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="Y43" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="Z43" s="30">
         <v>1</v>
       </c>
-      <c r="AA43" s="30" t="s">
-        <v>186</v>
+      <c r="AA43" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
-      <c r="A44" s="29"/>
+    <row r="44" spans="1:28">
+      <c r="A44" s="27"/>
       <c r="B44" s="30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C44" s="30">
         <v>29</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>51</v>
+      <c r="D44" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G44" s="30">
         <v>0</v>
       </c>
-      <c r="H44" s="27" t="s">
-        <v>52</v>
+      <c r="H44" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="I44" s="30">
         <v>1</v>
@@ -6013,48 +6155,49 @@
       <c r="N44" s="30"/>
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
-      <c r="Q44" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R44" s="30">
-        <v>0</v>
-      </c>
-      <c r="S44" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T44" s="30">
-        <v>0</v>
-      </c>
-      <c r="U44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="S44" s="30">
+        <v>0</v>
+      </c>
+      <c r="T44" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U44" s="30">
+        <v>0</v>
+      </c>
       <c r="V44" s="30"/>
       <c r="W44" s="30"/>
       <c r="X44" s="30"/>
       <c r="Y44" s="30"/>
       <c r="Z44" s="30"/>
       <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
     </row>
-    <row r="45" s="14" customFormat="1" spans="1:27">
-      <c r="A45" s="29"/>
+    <row r="45" s="14" customFormat="1" spans="1:28">
+      <c r="A45" s="27"/>
       <c r="B45" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="F45" s="27" t="s">
-        <v>51</v>
+      <c r="D45" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G45" s="30">
         <v>0</v>
       </c>
-      <c r="H45" s="27" t="s">
-        <v>52</v>
+      <c r="H45" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="I45" s="30">
         <v>1</v>
@@ -6066,493 +6209,506 @@
         <v>1</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M45" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="N45" s="27" t="s">
         <v>55</v>
       </c>
+      <c r="N45" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="O45" s="30">
         <v>0</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q45" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R45" s="30">
-        <v>0</v>
-      </c>
-      <c r="S45" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T45" s="30">
-        <v>0</v>
-      </c>
-      <c r="U45" s="30" t="s">
-        <v>197</v>
+        <v>47</v>
+      </c>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="S45" s="30">
+        <v>0</v>
+      </c>
+      <c r="T45" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U45" s="30">
+        <v>0</v>
       </c>
       <c r="V45" s="30" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="W45" s="30" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="X45" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y45" s="30">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="Y45" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="Z45" s="30">
         <v>1</v>
       </c>
       <c r="AA45" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="30">
         <v>1111</v>
       </c>
     </row>
-    <row r="46" s="14" customFormat="1" spans="1:27">
-      <c r="A46" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" s="27" t="s">
+    <row r="46" s="14" customFormat="1" spans="1:28">
+      <c r="A46" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="27" t="s">
+      <c r="C46" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27">
-        <v>1</v>
-      </c>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
+      <c r="D46" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28">
+        <v>1</v>
+      </c>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
     </row>
-    <row r="47" s="14" customFormat="1" spans="1:27">
-      <c r="A47" s="29"/>
-      <c r="B47" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="27" t="s">
+    <row r="47" s="14" customFormat="1" spans="1:28">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="27" t="s">
+      <c r="C47" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
+      <c r="D47" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
     </row>
-    <row r="48" s="14" customFormat="1" spans="1:27">
-      <c r="A48" s="29"/>
-      <c r="B48" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="27" t="s">
+    <row r="48" s="14" customFormat="1" spans="1:28">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
     </row>
-    <row r="49" s="14" customFormat="1" spans="1:27">
-      <c r="A49" s="29"/>
-      <c r="B49" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="27" t="s">
+    <row r="49" s="14" customFormat="1" spans="1:28">
+      <c r="A49" s="27"/>
+      <c r="B49" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
     </row>
-    <row r="50" s="14" customFormat="1" spans="1:27">
-      <c r="A50" s="29"/>
-      <c r="B50" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="27" t="s">
+    <row r="50" s="14" customFormat="1" spans="1:28">
+      <c r="A50" s="27"/>
+      <c r="B50" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
     </row>
-    <row r="51" s="14" customFormat="1" spans="1:27">
-      <c r="A51" s="29"/>
-      <c r="B51" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="27" t="s">
+    <row r="51" s="14" customFormat="1" spans="1:28">
+      <c r="A51" s="27"/>
+      <c r="B51" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
     </row>
-    <row r="52" s="14" customFormat="1" spans="1:27">
-      <c r="A52" s="29"/>
-      <c r="B52" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
+    <row r="52" s="14" customFormat="1" spans="1:28">
+      <c r="A52" s="27"/>
+      <c r="B52" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
     </row>
-    <row r="53" s="14" customFormat="1" spans="1:27">
-      <c r="A53" s="29"/>
-      <c r="B53" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
+    <row r="53" s="14" customFormat="1" spans="1:28">
+      <c r="A53" s="27"/>
+      <c r="B53" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
     </row>
-    <row r="54" s="14" customFormat="1" spans="1:27">
-      <c r="A54" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B54" s="27" t="s">
+    <row r="54" s="15" customFormat="1" spans="1:28">
+      <c r="A54" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27" t="s">
+      <c r="B54" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
+      <c r="E54" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="32"/>
     </row>
-    <row r="55" s="14" customFormat="1" spans="1:27">
-      <c r="A55" s="29"/>
-      <c r="B55" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="E55" s="27" t="s">
+    <row r="55" s="16" customFormat="1" spans="1:28">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
     </row>
-    <row r="56" s="14" customFormat="1" spans="1:27">
-      <c r="A56" s="29"/>
-      <c r="B56" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="27" t="s">
+    <row r="56" s="16" customFormat="1" spans="1:28">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
     </row>
-    <row r="57" s="14" customFormat="1" spans="1:27">
-      <c r="A57" s="29"/>
-      <c r="B57" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="27" t="s">
+    <row r="57" s="14" customFormat="1" spans="1:28">
+      <c r="A57" s="27"/>
+      <c r="B57" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
     </row>
-    <row r="58" spans="1:27">
-      <c r="A58" s="26" t="s">
-        <v>235</v>
+    <row r="58" spans="1:28">
+      <c r="A58" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C58" s="30"/>
-      <c r="D58" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>237</v>
+      <c r="D58" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>238</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
@@ -6576,166 +6732,171 @@
       <c r="Y58" s="30"/>
       <c r="Z58" s="30"/>
       <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
     </row>
-    <row r="59" spans="1:27">
-      <c r="A59" s="29"/>
-      <c r="B59" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="27" t="s">
+    <row r="59" spans="1:28">
+      <c r="A59" s="27"/>
+      <c r="B59" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="31"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="31"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
     </row>
-    <row r="60" spans="1:27">
-      <c r="A60" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="B60" s="31" t="s">
+    <row r="60" spans="1:28">
+      <c r="A60" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="31" t="s">
+      <c r="B60" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="31"/>
-      <c r="X60" s="31"/>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="31"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
     </row>
-    <row r="61" spans="1:27">
-      <c r="A61" s="29"/>
-      <c r="B61" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
-      <c r="X61" s="31"/>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="31"/>
-      <c r="AA61" s="31"/>
+    <row r="61" spans="1:28">
+      <c r="A61" s="27"/>
+      <c r="B61" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
     </row>
-    <row r="62" spans="1:27">
-      <c r="A62" s="16"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="50"/>
-      <c r="S62" s="50"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="50"/>
-      <c r="V62" s="50"/>
-      <c r="W62" s="50"/>
-      <c r="X62" s="50"/>
-      <c r="Y62" s="50"/>
-      <c r="Z62" s="50"/>
-      <c r="AA62" s="50"/>
+    <row r="62" spans="1:28">
+      <c r="A62" s="18"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="P63" s="33"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="P63" s="36"/>
     </row>
-    <row r="64" ht="15" spans="2:23">
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="W64" s="34"/>
+    <row r="64" ht="15" spans="2:24">
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="X64" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -6743,8 +6904,8 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1:AB1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A5:A13"/>
     <mergeCell ref="A14:A23"/>
@@ -6761,9 +6922,9 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="I2:K3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6809,19 +6970,19 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:30">
       <c r="A1" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -6829,14 +6990,14 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="11"/>
       <c r="T1" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -6845,7 +7006,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AB1" s="12"/>
       <c r="AC1" s="13"/>
@@ -6853,26 +7014,26 @@
     </row>
     <row r="2" ht="16.5" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="11"/>
@@ -6880,10 +7041,10 @@
       <c r="N2" s="11"/>
       <c r="O2" s="5"/>
       <c r="P2" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
@@ -6916,7 +7077,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -6931,7 +7092,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -6944,10 +7105,10 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>21</v>
@@ -6959,72 +7120,72 @@
         <v>23</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="27:27">
       <c r="AA5" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="27:27">
       <c r="AA6" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="27:27">
       <c r="AA7" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="27:27">
       <c r="AA8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
